--- a/6_Testing_Documentation/Praktikum/Praktikum.xlsx
+++ b/6_Testing_Documentation/Praktikum/Praktikum.xlsx
@@ -499,38 +499,38 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -816,7 +816,7 @@
   <dimension ref="A2:I34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="B8" sqref="B8:B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -831,29 +831,29 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="13"/>
+      <c r="B2" s="20"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
       <c r="F4" s="8"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
       <c r="F5" s="8"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -880,46 +880,46 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="18" t="s">
+      <c r="E8" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="F8" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="G8" s="11" t="s">
+      <c r="F8" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="G8" s="18" t="s">
         <v>68</v>
       </c>
       <c r="I8" s="9"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="20"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="17"/>
+      <c r="A9" s="14"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="21"/>
     </row>
     <row r="10" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="20"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="12"/>
+      <c r="A10" s="14"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="17"/>
     </row>
     <row r="11" spans="1:9" ht="78" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
@@ -1219,50 +1219,50 @@
       </c>
     </row>
     <row r="25" spans="1:7" ht="100.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="20"/>
-      <c r="B25" s="18" t="s">
+      <c r="A25" s="14"/>
+      <c r="B25" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="18" t="s">
+      <c r="C25" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="D25" s="18" t="s">
+      <c r="D25" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="E25" s="18" t="s">
+      <c r="E25" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="F25" s="15" t="s">
+      <c r="F25" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="G25" s="11" t="s">
+      <c r="G25" s="18" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="20"/>
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="12"/>
+      <c r="A26" s="14"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="17"/>
     </row>
     <row r="27" spans="1:7" ht="141.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="14"/>
-      <c r="B27" s="15" t="s">
+      <c r="A27" s="16"/>
+      <c r="B27" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="C27" s="18" t="s">
+      <c r="C27" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="D27" s="18" t="s">
+      <c r="D27" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="E27" s="18" t="s">
+      <c r="E27" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="F27" s="15" t="s">
+      <c r="F27" s="11" t="s">
         <v>73</v>
       </c>
       <c r="G27" s="19" t="s">
@@ -1270,117 +1270,128 @@
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="12"/>
-      <c r="B28" s="16"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="20"/>
+      <c r="A28" s="17"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="14"/>
     </row>
     <row r="29" spans="1:7" ht="150" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="14"/>
-      <c r="B29" s="15" t="s">
+      <c r="A29" s="16"/>
+      <c r="B29" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C29" s="18" t="s">
+      <c r="C29" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="D29" s="18" t="s">
+      <c r="D29" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="E29" s="15" t="s">
+      <c r="E29" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F29" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="G29" s="11" t="s">
+      <c r="F29" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="G29" s="18" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="12"/>
-      <c r="B30" s="16"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="12"/>
+      <c r="A30" s="17"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="17"/>
     </row>
     <row r="31" spans="1:7" ht="169.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="14"/>
-      <c r="B31" s="15" t="s">
+      <c r="A31" s="16"/>
+      <c r="B31" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C31" s="18" t="s">
+      <c r="C31" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="D31" s="18" t="s">
+      <c r="D31" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="E31" s="15" t="s">
+      <c r="E31" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="F31" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="G31" s="11" t="s">
+      <c r="F31" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="G31" s="18" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="12"/>
-      <c r="B32" s="16"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="12"/>
+      <c r="A32" s="17"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="17"/>
     </row>
     <row r="33" spans="1:7" ht="175.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="14"/>
-      <c r="B33" s="15" t="s">
+      <c r="A33" s="16"/>
+      <c r="B33" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="C33" s="18" t="s">
+      <c r="C33" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="D33" s="18" t="s">
+      <c r="D33" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="E33" s="15" t="s">
+      <c r="E33" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="F33" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="G33" s="11" t="s">
+      <c r="F33" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="G33" s="18" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="12"/>
-      <c r="B34" s="16"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="16"/>
-      <c r="G34" s="12"/>
+      <c r="A34" s="17"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="G8:G10"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="G29:G30"/>
     <mergeCell ref="C33:C34"/>
     <mergeCell ref="D33:D34"/>
     <mergeCell ref="C25:C26"/>
@@ -1393,28 +1404,17 @@
     <mergeCell ref="E29:E30"/>
     <mergeCell ref="B25:B26"/>
     <mergeCell ref="D25:D26"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="G8:G10"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="F33:F34"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G31" r:id="rId1"/>
